--- a/CHILE/01 Impactos y Proyecciones/Vida Humana/Desastres Naturales/Muertes por desastres naturales Global 1990-2017 OWID.xlsx
+++ b/CHILE/01 Impactos y Proyecciones/Vida Humana/Desastres Naturales/Muertes por desastres naturales Global 1990-2017 OWID.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\DATAICC\Desastres Naturales\CHILE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\CHILE\01 Impactos y Proyecciones\Vida Humana\Desastres Naturales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A627E6EE-30FC-43F7-883A-0E9A6BDCD855}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F95728-21AA-449C-A219-4564CA57298E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19445,19 +19445,19 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Numero de Muertes por Desastres Naturales</t>
-  </si>
-  <si>
     <t>Población</t>
   </si>
   <si>
     <t>Tasa de Muertes por Desastres Naturales (por 100.000 habitantes)</t>
   </si>
   <si>
-    <t>Porcentaje de Muertes por Desastres Naturales del Total de Muertes</t>
-  </si>
-  <si>
     <t>Defunciones</t>
+  </si>
+  <si>
+    <t>Número de Muertes por Desastres Naturales</t>
+  </si>
+  <si>
+    <t>Porcentaje de Muertes por Desastres Naturales del Total de Muertes (%)</t>
   </si>
 </sst>
 </file>
@@ -20010,19 +20010,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Muertes_Desastre_Natural_Chile" displayName="Muertes_Desastre_Natural_Chile" ref="A1:H29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Muertes_Desastre_Natural_CHILE" displayName="Muertes_Desastre_Natural_CHILE" ref="A1:H29" totalsRowShown="0">
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Pais"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Codigo Pais"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Año"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Numero de Muertes por Desastres Naturales"/>
-    <tableColumn id="6" xr3:uid="{2D97480A-A095-435E-95F2-14A2B50C3B4C}" name="Tasa de Muertes por Desastres Naturales (por 100.000 habitantes)" dataDxfId="1">
-      <calculatedColumnFormula>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{D3F6D921-D73C-475A-AE97-561DAFC9AF48}" name="Porcentaje de Muertes por Desastres Naturales del Total de Muertes" dataDxfId="0">
-      <calculatedColumnFormula>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Número de Muertes por Desastres Naturales"/>
+    <tableColumn id="6" xr3:uid="{2D97480A-A095-435E-95F2-14A2B50C3B4C}" name="Tasa de Muertes por Desastres Naturales (por 100.000 habitantes)" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{D3F6D921-D73C-475A-AE97-561DAFC9AF48}" name="Porcentaje de Muertes por Desastres Naturales del Total de Muertes (%)" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{B0E78FD2-82E7-4B49-9702-0E4FCFF1519F}" name="Población"/>
     <tableColumn id="8" xr3:uid="{ADE2E5D0-0940-41EE-A201-755A1EC1F6F1}" name="Defunciones"/>
   </tableColumns>
@@ -20329,8 +20325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20354,19 +20350,19 @@
         <v>6473</v>
       </c>
       <c r="D1" t="s">
+        <v>6477</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6475</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6478</v>
+      </c>
+      <c r="G1" t="s">
         <v>6474</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>6476</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6477</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6475</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6478</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -20383,11 +20379,9 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>0</v>
       </c>
       <c r="G2">
@@ -20411,11 +20405,9 @@
         <v>82</v>
       </c>
       <c r="E3">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0.61093726717329755</v>
       </c>
       <c r="F3">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>0.11107950312241774</v>
       </c>
       <c r="G3">
@@ -20439,11 +20431,9 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>0</v>
       </c>
       <c r="G4">
@@ -20467,11 +20457,9 @@
         <v>120</v>
       </c>
       <c r="E5">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0.85979803630726492</v>
       </c>
       <c r="F5">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>0.1592218585754194</v>
       </c>
       <c r="G5">
@@ -20495,11 +20483,9 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>2.1168768643069935E-2</v>
       </c>
       <c r="F6">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>3.9201423413092471E-3</v>
       </c>
       <c r="G6">
@@ -20523,11 +20509,9 @@
         <v>30</v>
       </c>
       <c r="E7">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0.20860496887300958</v>
       </c>
       <c r="F7">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>3.8630549791298069E-2</v>
       </c>
       <c r="G7">
@@ -20551,11 +20535,9 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0</v>
       </c>
       <c r="F8">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>0</v>
       </c>
       <c r="G8">
@@ -20579,11 +20561,9 @@
         <v>33</v>
       </c>
       <c r="E9">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0.22323382471382439</v>
       </c>
       <c r="F9">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>4.1339597169226729E-2</v>
       </c>
       <c r="G9">
@@ -20607,11 +20587,9 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>2.6711367249379597E-2</v>
       </c>
       <c r="F10">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>5.0398806130904899E-3</v>
       </c>
       <c r="G10">
@@ -20635,11 +20613,9 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0</v>
       </c>
       <c r="F11">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>0</v>
       </c>
       <c r="G11">
@@ -20663,11 +20639,9 @@
         <v>16</v>
       </c>
       <c r="E12">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0.10427986735079474</v>
       </c>
       <c r="F12">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>2.0301476932446834E-2</v>
       </c>
       <c r="G12">
@@ -20691,11 +20665,9 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>5.7989507636219448E-2</v>
       </c>
       <c r="F13">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>1.0992903470093195E-2</v>
       </c>
       <c r="G13">
@@ -20719,11 +20691,9 @@
         <v>21</v>
       </c>
       <c r="E14">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0.13382870346560899</v>
       </c>
       <c r="F14">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>2.590066478372945E-2</v>
       </c>
       <c r="G14">
@@ -20747,11 +20717,9 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>0</v>
       </c>
       <c r="G15">
@@ -20775,11 +20743,9 @@
         <v>5</v>
       </c>
       <c r="E16">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>3.1206831200315213E-2</v>
       </c>
       <c r="F16">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>5.8047738460109593E-3</v>
       </c>
       <c r="G16">
@@ -20803,11 +20769,9 @@
         <v>58</v>
       </c>
       <c r="E17">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0.35838996152189434</v>
       </c>
       <c r="F17">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>6.7361966040277804E-2</v>
       </c>
       <c r="G17">
@@ -20831,11 +20795,9 @@
         <v>18</v>
       </c>
       <c r="E18">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0.11010595251130269</v>
       </c>
       <c r="F18">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>2.1018706648917536E-2</v>
       </c>
       <c r="G18">
@@ -20859,11 +20821,9 @@
         <v>15</v>
       </c>
       <c r="E19">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>9.0810393770213257E-2</v>
       </c>
       <c r="F19">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>1.6129032258064516E-2</v>
       </c>
       <c r="G19">
@@ -20887,11 +20847,9 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>5.9888293958576706E-2</v>
       </c>
       <c r="F20">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>1.1090532012820654E-2</v>
       </c>
       <c r="G20">
@@ -20915,11 +20873,9 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>1.7771376922729697E-2</v>
       </c>
       <c r="F21">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>3.2621105855488502E-3</v>
       </c>
       <c r="G21">
@@ -20943,11 +20899,9 @@
         <v>508</v>
       </c>
       <c r="E22">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>2.9770403963870686</v>
       </c>
       <c r="F22">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>0.51873787399162663</v>
       </c>
       <c r="G22">
@@ -20971,11 +20925,9 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>5.7957040966180968E-3</v>
       </c>
       <c r="F23">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>1.0527978101805549E-3</v>
       </c>
       <c r="G23">
@@ -20999,11 +20951,9 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>5.7327974085003971E-3</v>
       </c>
       <c r="F24">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>1.0130583217675842E-3</v>
       </c>
       <c r="G24">
@@ -21027,11 +20977,9 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>2.2711913795568472E-2</v>
       </c>
       <c r="F25">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>4.0092212087801948E-3</v>
       </c>
       <c r="G25">
@@ -21055,11 +21003,9 @@
         <v>3</v>
       </c>
       <c r="E26">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>1.6865665591967716E-2</v>
       </c>
       <c r="F26">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>2.9423303256178894E-3</v>
       </c>
       <c r="G26">
@@ -21083,11 +21029,9 @@
         <v>221</v>
       </c>
       <c r="E27">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>1.2297301109656147</v>
       </c>
       <c r="F27">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>0.21388407676599533</v>
       </c>
       <c r="G27">
@@ -21111,11 +21055,9 @@
         <v>12</v>
       </c>
       <c r="E28">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>6.6053299398083798E-2</v>
       </c>
       <c r="F28">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>1.1535577644050526E-2</v>
       </c>
       <c r="G28">
@@ -21139,11 +21081,9 @@
         <v>28</v>
       </c>
       <c r="E29">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100000)/Muertes_Desastre_Natural_Chile[[#This Row],[Población]],"")</f>
         <v>0.15201535441945555</v>
       </c>
       <c r="F29">
-        <f>IFERROR((Muertes_Desastre_Natural_Chile[[#This Row],[Numero de Muertes por Desastres Naturales]]*100)/Muertes_Desastre_Natural_Chile[[#This Row],[Defunciones]],"")</f>
         <v>2.6318757754633982E-2</v>
       </c>
       <c r="G29">
